--- a/biology/Zoologie/Dryophytes_squirellus/Dryophytes_squirellus.xlsx
+++ b/biology/Zoologie/Dryophytes_squirellus/Dryophytes_squirellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryophytes squirellus est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryophytes squirellus est une espèce d'amphibiens de la famille des Hylidae.
 Elle partage le nom de rainette de la Caroline avec la Hyla cinerea.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans les États du Sud-Est : en Virginie, en Caroline du Nord, en Caroline du Sud, dans le sud de la Géorgie, en Floride, en Alabama, au Mississippi, en Louisiane, dans l'extrême sud-est de l'Oklahoma, dans l'est du Texas[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans les États du Sud-Est : en Virginie, en Caroline du Nord, en Caroline du Sud, dans le sud de la Géorgie, en Floride, en Alabama, au Mississippi, en Louisiane, dans l'extrême sud-est de l'Oklahoma, dans l'est du Texas,.
 Elle a été introduite sur les îles de Grand Bahama et d'Andros aux Bahamas.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette grenouille arboricole mesure adulte entre 2 et 4 cm. C'est une espèce nocturne qui vit sur les plaines côtières.
 </t>
@@ -575,9 +591,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Fouquette et Dubois en 2014[3], Bosc n'est pas le descripteur original de cette espèce contrairement à ce qui est mentionné dans la publication originale[4] mais bien Daudin.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Fouquette et Dubois en 2014, Bosc n'est pas le descripteur original de cette espèce contrairement à ce qui est mentionné dans la publication originale mais bien Daudin.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Daudin, 1800 : Histoire naturelle des quadrupèdes ovipares, (texte intégral).</t>
         </is>
